--- a/data/trans_camb/P38C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,5</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,68; 32,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,22; 27,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,49; 28,48</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,43%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,31; 50,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,3; 38,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,66; 40,96</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,8</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,91; -5,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; -5,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; -7,24</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,86%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,05; -6,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,85; -6,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,2; -8,1</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,99</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 8,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,27; 7,86</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 10,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 9,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,54; 8,87</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,26</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; -0,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,95; 2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,96; -0,6</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,62%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; -0,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; 2,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; -0,7</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 12,98</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,1; 4,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 6,99</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,05%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,32; 17,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,82; 5,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 8,77</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,39</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,6; 20,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,98; 14,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,94; 16,43</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,55; 27,61</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,72; 17,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,37; 20,23</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,56</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,84</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,16</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,11; 23,51</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,03; 23,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,84; 23,47</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,79%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,46; 37,82</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,55; 33,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,35; 35,22</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,71</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,74</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,79</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,91; -26,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,41; -21,98</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; -25,24</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,58%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,27%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,34%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,97; -29,87</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,1; -23,53</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,39; -27,57</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; -0,33</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 0,86</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; -0,06</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,22%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,92; -0,35</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 0,99</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; -0,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Provincia-trans_camb.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,6</t>
+          <t>26,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,37</t>
+          <t>22,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,5</t>
+          <t>24,37</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,68; 32,62</t>
+          <t>20,35; 32,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 27,6</t>
+          <t>17,21; 27,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,49; 28,48</t>
+          <t>20,25; 28,38</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>33,25%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,31; 50,2</t>
+          <t>26,85; 49,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,3; 38,69</t>
+          <t>21,43; 38,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 40,96</t>
+          <t>26,58; 40,82</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,82</t>
+          <t>-13,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,8</t>
+          <t>-11,74</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,91; -5,34</t>
+          <t>-20,74; -6,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -5,73</t>
+          <t>-14,05; -5,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -7,24</t>
+          <t>-16,02; -8,06</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>-15,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-10,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-12,89%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,05; -6,27</t>
+          <t>-23,07; -7,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -6,14</t>
+          <t>-14,8; -6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,2; -8,1</t>
+          <t>-17,33; -8,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,82</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 8,94</t>
+          <t>-0,72; 8,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 8,64</t>
+          <t>1,93; 8,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,86</t>
+          <t>2,02; 7,74</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 10,31</t>
+          <t>-0,84; 10,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,67</t>
+          <t>2,04; 9,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 8,87</t>
+          <t>2,18; 8,69</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-13,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-10,46</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,71; -0,43</t>
+          <t>-15,92; -0,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 2,05</t>
+          <t>-43,94; 1,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,96; -0,6</t>
+          <t>-31,17; -1,44</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>-14,18%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,62%</t>
+          <t>-11,36%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -0,47</t>
+          <t>-16,89; -0,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 2,27</t>
+          <t>-47,46; 2,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -0,7</t>
+          <t>-33,59; -1,6</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 12,98</t>
+          <t>-3,32; 13,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 4,8</t>
+          <t>-6,05; 5,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 6,99</t>
+          <t>-2,7; 7,26</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,05%</t>
+          <t>-0,38%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 17,92</t>
+          <t>-4,06; 17,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 5,48</t>
+          <t>-6,66; 6,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 8,77</t>
+          <t>-3,15; 9,02</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>15,01</t>
+          <t>14,83</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9,91</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>12,28</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,6; 20,86</t>
+          <t>9,35; 20,77</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5,98; 14,99</t>
+          <t>6,02; 14,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,94; 16,43</t>
+          <t>8,79; 16,31</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,55; 27,61</t>
+          <t>11,27; 27,4</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,72; 17,93</t>
+          <t>6,77; 17,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10,37; 20,23</t>
+          <t>10,21; 20,1</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>18,56</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>18,84</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>19,16</t>
+          <t>19,23</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>13,11; 23,51</t>
+          <t>11,3; 22,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>15,03; 23,61</t>
+          <t>15,8; 25,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,47</t>
+          <t>15,41; 24,69</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,79%</t>
+          <t>27,89%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>19,46; 37,82</t>
+          <t>16,97; 36,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>19,55; 33,36</t>
+          <t>20,83; 35,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>22,35; 35,22</t>
+          <t>21,87; 37,0</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-31,71</t>
+          <t>-43,86</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-25,74</t>
+          <t>-24,72</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-28,79</t>
+          <t>-35,94</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-43,91; -26,38</t>
+          <t>-67,99; -26,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-29,41; -21,98</t>
+          <t>-28,19; -21,13</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-35,18; -25,24</t>
+          <t>-56,9; -25,15</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-35,58%</t>
+          <t>-49,21%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-26,19%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-39,13%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-48,97; -29,87</t>
+          <t>-76,11; -29,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,1; -23,53</t>
+          <t>-29,83; -22,63</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-38,39; -27,57</t>
+          <t>-62,23; -27,42</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-6,81</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-3,89</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-7,47; -0,33</t>
+          <t>-26,97; -0,38</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 0,86</t>
+          <t>-7,39; 1,31</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,87; -0,06</t>
+          <t>-12,48; -0,12</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-8,35%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-4,6%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,92; -0,35</t>
+          <t>-33,1; -0,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,99</t>
+          <t>-8,44; 1,51</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-4,56; -0,07</t>
+          <t>-14,71; -0,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Provincia-trans_camb.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,35; 32,53</t>
+          <t>20,2; 32,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 27,58</t>
+          <t>17,51; 27,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,25; 28,38</t>
+          <t>20,22; 28,53</t>
         </is>
       </c>
     </row>
@@ -625,24 +625,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,85; 49,89</t>
+          <t>26,57; 50,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,43; 38,85</t>
+          <t>21,7; 39,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,58; 40,82</t>
+          <t>26,45; 41,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,74; -6,57</t>
+          <t>-20,4; -7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,05; -5,72</t>
+          <t>-14,29; -6,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -8,06</t>
+          <t>-16,13; -7,92</t>
         </is>
       </c>
     </row>
@@ -721,24 +721,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,07; -7,55</t>
+          <t>-23,22; -8,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,8; -6,13</t>
+          <t>-15,01; -7,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; -8,85</t>
+          <t>-17,51; -8,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 8,85</t>
+          <t>-0,42; 8,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 8,61</t>
+          <t>2,31; 8,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 7,74</t>
+          <t>2,03; 7,75</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 10,09</t>
+          <t>-0,44; 10,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 9,67</t>
+          <t>2,47; 9,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 8,69</t>
+          <t>2,21; 8,68</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -0,78</t>
+          <t>-15,16; -0,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 1,8</t>
+          <t>-46,04; 2,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-31,17; -1,44</t>
+          <t>-32,92; -1,27</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,89; -0,81</t>
+          <t>-16,34; -0,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 2,0</t>
+          <t>-48,92; 2,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,59; -1,6</t>
+          <t>-36,15; -1,39</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 13,03</t>
+          <t>-4,39; 12,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 5,18</t>
+          <t>-5,94; 5,2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,26</t>
+          <t>-3,13; 6,98</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1009,24 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 17,98</t>
+          <t>-5,4; 17,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 6,12</t>
+          <t>-6,43; 6,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 9,02</t>
+          <t>-3,67; 8,7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>9,35; 20,77</t>
+          <t>9,51; 20,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6,02; 14,99</t>
+          <t>5,9; 14,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,31</t>
+          <t>9,16; 16,01</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1105,24 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,27; 27,4</t>
+          <t>11,41; 27,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,77; 17,92</t>
+          <t>6,53; 17,42</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10,21; 20,1</t>
+          <t>10,45; 19,52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>11,3; 22,45</t>
+          <t>10,75; 22,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>15,8; 25,17</t>
+          <t>15,66; 26,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>15,41; 24,69</t>
+          <t>15,25; 24,75</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>16,97; 36,34</t>
+          <t>16,26; 37,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>20,83; 35,77</t>
+          <t>20,67; 37,51</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>21,87; 37,0</t>
+          <t>21,52; 36,57</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-67,99; -26,61</t>
+          <t>-69,86; -25,85</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-28,19; -21,13</t>
+          <t>-28,32; -21,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-56,9; -25,15</t>
+          <t>-56,92; -25,32</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-76,11; -29,91</t>
+          <t>-77,52; -29,2</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -22,63</t>
+          <t>-29,94; -22,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,23; -27,42</t>
+          <t>-61,9; -27,61</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-26,97; -0,38</t>
+          <t>-24,42; -0,38</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 1,31</t>
+          <t>-6,47; 1,64</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-12,48; -0,12</t>
+          <t>-13,93; 0,07</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-33,1; -0,46</t>
+          <t>-29,91; -0,46</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,51</t>
+          <t>-7,37; 1,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-14,71; -0,16</t>
+          <t>-16,48; 0,09</t>
         </is>
       </c>
     </row>
